--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H2">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.400249129426562</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N2">
-        <v>0.400249129426562</v>
+        <v>1.919812</v>
       </c>
       <c r="O2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q2">
-        <v>0.1210647028636296</v>
+        <v>0.2646219798937778</v>
       </c>
       <c r="R2">
-        <v>0.1210647028636296</v>
+        <v>2.381597819044</v>
       </c>
       <c r="S2">
-        <v>0.01585842760735202</v>
+        <v>0.0215304671137919</v>
       </c>
       <c r="T2">
-        <v>0.01585842760735202</v>
+        <v>0.0215304671137919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H3">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.06362722406337</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N3">
-        <v>2.06362722406337</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q3">
-        <v>0.6241922800943107</v>
+        <v>0.9888995830477779</v>
       </c>
       <c r="R3">
-        <v>0.6241922800943107</v>
+        <v>8.900096247430001</v>
       </c>
       <c r="S3">
-        <v>0.08176378294252938</v>
+        <v>0.08045994501363543</v>
       </c>
       <c r="T3">
-        <v>0.08176378294252938</v>
+        <v>0.08045994501363544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H4">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.412941522219357</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N4">
-        <v>0.412941522219357</v>
+        <v>1.265099</v>
       </c>
       <c r="O4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q4">
-        <v>0.1249038136801595</v>
+        <v>0.1743780131292222</v>
       </c>
       <c r="R4">
-        <v>0.1249038136801595</v>
+        <v>1.569402118163</v>
       </c>
       <c r="S4">
-        <v>0.01636131787611286</v>
+        <v>0.01418793736844598</v>
       </c>
       <c r="T4">
-        <v>0.01636131787611286</v>
+        <v>0.01418793736844598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H5">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.791115369800551</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N5">
-        <v>0.791115369800551</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q5">
-        <v>0.2392913316587918</v>
+        <v>0.1278660080384444</v>
       </c>
       <c r="R5">
-        <v>0.2392913316587918</v>
+        <v>1.150794072346</v>
       </c>
       <c r="S5">
-        <v>0.03134509209056877</v>
+        <v>0.01040357600736216</v>
       </c>
       <c r="T5">
-        <v>0.03134509209056877</v>
+        <v>0.01040357600736216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H6">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.22436935081516</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N6">
-        <v>1.22436935081516</v>
+        <v>2.542378</v>
       </c>
       <c r="O6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q6">
-        <v>0.3703391231959428</v>
+        <v>0.3504348863317778</v>
       </c>
       <c r="R6">
-        <v>0.3703391231959428</v>
+        <v>3.153913976986</v>
       </c>
       <c r="S6">
-        <v>0.04851121785669087</v>
+        <v>0.02851247201279501</v>
       </c>
       <c r="T6">
-        <v>0.04851121785669087</v>
+        <v>0.02851247201279502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.588235452090426</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H7">
-        <v>0.588235452090426</v>
+        <v>1.240537</v>
       </c>
       <c r="I7">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J7">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.400249129426562</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N7">
-        <v>0.400249129426562</v>
+        <v>5.083978</v>
       </c>
       <c r="O7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q7">
-        <v>0.2354407275970331</v>
+        <v>0.7007625351317778</v>
       </c>
       <c r="R7">
-        <v>0.2354407275970331</v>
+        <v>6.306862816186</v>
       </c>
       <c r="S7">
-        <v>0.03084069630621897</v>
+        <v>0.0570162188465545</v>
       </c>
       <c r="T7">
-        <v>0.03084069630621897</v>
+        <v>0.05701621884655452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H8">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J8">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.06362722406337</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N8">
-        <v>2.06362722406337</v>
+        <v>1.919812</v>
       </c>
       <c r="O8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q8">
-        <v>1.213898693093027</v>
+        <v>0.3863764569337778</v>
       </c>
       <c r="R8">
-        <v>1.213898693093027</v>
+        <v>3.477388112404</v>
       </c>
       <c r="S8">
-        <v>0.1590102159566633</v>
+        <v>0.03143678995560165</v>
       </c>
       <c r="T8">
-        <v>0.1590102159566633</v>
+        <v>0.03143678995560165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H9">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J9">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412941522219357</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N9">
-        <v>0.412941522219357</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q9">
-        <v>0.2429068430096122</v>
+        <v>1.443899396847778</v>
       </c>
       <c r="R9">
-        <v>0.2429068430096122</v>
+        <v>12.99509457163</v>
       </c>
       <c r="S9">
-        <v>0.03181869276578068</v>
+        <v>0.1174801446649822</v>
       </c>
       <c r="T9">
-        <v>0.03181869276578068</v>
+        <v>0.1174801446649823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H10">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J10">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.791115369800551</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N10">
-        <v>0.791115369800551</v>
+        <v>1.265099</v>
       </c>
       <c r="O10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q10">
-        <v>0.4653621072103117</v>
+        <v>0.2546105917092222</v>
       </c>
       <c r="R10">
-        <v>0.4653621072103117</v>
+        <v>2.291495325383</v>
       </c>
       <c r="S10">
-        <v>0.06095840582628319</v>
+        <v>0.02071590944115449</v>
       </c>
       <c r="T10">
-        <v>0.06095840582628319</v>
+        <v>0.0207159094411545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H11">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J11">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.22436935081516</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N11">
-        <v>1.22436935081516</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q11">
-        <v>0.7202174586024171</v>
+        <v>0.1866980783984444</v>
       </c>
       <c r="R11">
-        <v>0.7202174586024171</v>
+        <v>1.680282705586</v>
       </c>
       <c r="S11">
-        <v>0.09434224971140415</v>
+        <v>0.01519033618741497</v>
       </c>
       <c r="T11">
-        <v>0.09434224971140415</v>
+        <v>0.01519033618741497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H12">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J12">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.400249129426562</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N12">
-        <v>0.400249129426562</v>
+        <v>2.542378</v>
       </c>
       <c r="O12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q12">
-        <v>0.1109780595186211</v>
+        <v>0.5116724990917779</v>
       </c>
       <c r="R12">
-        <v>0.1109780595186211</v>
+        <v>4.605052491826001</v>
       </c>
       <c r="S12">
-        <v>0.01453716468344118</v>
+        <v>0.04163126554774249</v>
       </c>
       <c r="T12">
-        <v>0.01453716468344118</v>
+        <v>0.0416312655477425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H13">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J13">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.06362722406337</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N13">
-        <v>2.06362722406337</v>
+        <v>5.083978</v>
       </c>
       <c r="O13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q13">
-        <v>0.5721869906986811</v>
+        <v>1.023188419891778</v>
       </c>
       <c r="R13">
-        <v>0.5721869906986811</v>
+        <v>9.208695779026</v>
       </c>
       <c r="S13">
-        <v>0.07495154041789384</v>
+        <v>0.08324979139879307</v>
       </c>
       <c r="T13">
-        <v>0.07495154041789384</v>
+        <v>0.08324979139879311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H14">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.412941522219357</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N14">
-        <v>0.412941522219357</v>
+        <v>1.919812</v>
       </c>
       <c r="O14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q14">
-        <v>0.1144973104531842</v>
+        <v>0.1927431520515556</v>
       </c>
       <c r="R14">
-        <v>0.1144973104531842</v>
+        <v>1.734688368464</v>
       </c>
       <c r="S14">
-        <v>0.01499815607777634</v>
+        <v>0.01568218217670507</v>
       </c>
       <c r="T14">
-        <v>0.01499815607777634</v>
+        <v>0.01568218217670507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H15">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.791115369800551</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N15">
-        <v>0.791115369800551</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q15">
-        <v>0.2193545023361017</v>
+        <v>0.7202864356755556</v>
       </c>
       <c r="R15">
-        <v>0.2193545023361017</v>
+        <v>6.482577921080001</v>
       </c>
       <c r="S15">
-        <v>0.02873354011005342</v>
+        <v>0.05860474410344922</v>
       </c>
       <c r="T15">
-        <v>0.02873354011005342</v>
+        <v>0.05860474410344924</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H16">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.22436935081516</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N16">
-        <v>1.22436935081516</v>
+        <v>1.265099</v>
       </c>
       <c r="O16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q16">
-        <v>0.3394838981466699</v>
+        <v>0.1270120037364444</v>
       </c>
       <c r="R16">
-        <v>0.3394838981466699</v>
+        <v>1.143108033628</v>
       </c>
       <c r="S16">
-        <v>0.04446945059358012</v>
+        <v>0.01033409156186512</v>
       </c>
       <c r="T16">
-        <v>0.04446945059358012</v>
+        <v>0.01033409156186512</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H17">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I17">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J17">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.400249129426562</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N17">
-        <v>0.400249129426562</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q17">
-        <v>0.1570769919094286</v>
+        <v>0.09313397715288887</v>
       </c>
       <c r="R17">
-        <v>0.1570769919094286</v>
+        <v>0.838205794376</v>
       </c>
       <c r="S17">
-        <v>0.02057572559181195</v>
+        <v>0.007577669976892458</v>
       </c>
       <c r="T17">
-        <v>0.02057572559181195</v>
+        <v>0.007577669976892461</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H18">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I18">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J18">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.06362722406337</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N18">
-        <v>2.06362722406337</v>
+        <v>2.542378</v>
       </c>
       <c r="O18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q18">
-        <v>0.8098664880113211</v>
+        <v>0.2552468415795556</v>
       </c>
       <c r="R18">
-        <v>0.8098664880113211</v>
+        <v>2.297221574216</v>
       </c>
       <c r="S18">
-        <v>0.106085496168234</v>
+        <v>0.02076767670899394</v>
       </c>
       <c r="T18">
-        <v>0.106085496168234</v>
+        <v>0.02076767670899395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H19">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I19">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J19">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.412941522219357</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N19">
-        <v>0.412941522219357</v>
+        <v>5.083978</v>
       </c>
       <c r="O19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q19">
-        <v>0.1620580967600038</v>
+        <v>0.5104155743795555</v>
       </c>
       <c r="R19">
-        <v>0.1620580967600038</v>
+        <v>4.593740169416001</v>
       </c>
       <c r="S19">
-        <v>0.02122820718891673</v>
+        <v>0.04152899824480764</v>
       </c>
       <c r="T19">
-        <v>0.02122820718891673</v>
+        <v>0.04152899824480766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H20">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.791115369800551</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N20">
-        <v>0.791115369800551</v>
+        <v>1.919812</v>
       </c>
       <c r="O20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q20">
-        <v>0.3104716872704308</v>
+        <v>0.08451673692577777</v>
       </c>
       <c r="R20">
-        <v>0.3104716872704308</v>
+        <v>0.760650632332</v>
       </c>
       <c r="S20">
-        <v>0.04066910222591159</v>
+        <v>0.006876544517110413</v>
       </c>
       <c r="T20">
-        <v>0.04066910222591159</v>
+        <v>0.006876544517110415</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.396211</v>
+      </c>
+      <c r="I21">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J21">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N21">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P21">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q21">
+        <v>0.3158413595877778</v>
+      </c>
+      <c r="R21">
+        <v>2.84257223629</v>
+      </c>
+      <c r="S21">
+        <v>0.0256978351099544</v>
+      </c>
+      <c r="T21">
+        <v>0.02569783510995441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.396211</v>
+      </c>
+      <c r="I22">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J22">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.265099</v>
+      </c>
+      <c r="O22">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P22">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q22">
+        <v>0.05569401554322221</v>
+      </c>
+      <c r="R22">
+        <v>0.5012461398889999</v>
+      </c>
+      <c r="S22">
+        <v>0.00453143828252551</v>
+      </c>
+      <c r="T22">
+        <v>0.004531438282525513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.396211</v>
+      </c>
+      <c r="I23">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J23">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P23">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q23">
+        <v>0.04083870042644443</v>
+      </c>
+      <c r="R23">
+        <v>0.3675483038379999</v>
+      </c>
+      <c r="S23">
+        <v>0.003322763652718917</v>
+      </c>
+      <c r="T23">
+        <v>0.003322763652718919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.396211</v>
+      </c>
+      <c r="I24">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J24">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N24">
+        <v>2.542378</v>
+      </c>
+      <c r="O24">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P24">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q24">
+        <v>0.1119242366397778</v>
+      </c>
+      <c r="R24">
+        <v>1.007318129758</v>
+      </c>
+      <c r="S24">
+        <v>0.009106503916176239</v>
+      </c>
+      <c r="T24">
+        <v>0.009106503916176243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.396211</v>
+      </c>
+      <c r="I25">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J25">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N25">
+        <v>5.083978</v>
+      </c>
+      <c r="O25">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P25">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q25">
+        <v>0.2238142230397777</v>
+      </c>
+      <c r="R25">
+        <v>2.014328007358</v>
+      </c>
+      <c r="S25">
+        <v>0.01821022112634464</v>
+      </c>
+      <c r="T25">
+        <v>0.01821022112634465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.223082</v>
+      </c>
+      <c r="I26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6399373333333334</v>
+      </c>
+      <c r="N26">
+        <v>1.919812</v>
+      </c>
+      <c r="O26">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="P26">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="Q26">
+        <v>0.04758616673155556</v>
+      </c>
+      <c r="R26">
+        <v>0.428275500584</v>
+      </c>
+      <c r="S26">
+        <v>0.003871758492232738</v>
+      </c>
+      <c r="T26">
+        <v>0.003871758492232739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.223082</v>
+      </c>
+      <c r="I27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N27">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P27">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q27">
+        <v>0.1778308077755556</v>
+      </c>
+      <c r="R27">
+        <v>1.60047726998</v>
+      </c>
+      <c r="S27">
+        <v>0.01446886747717466</v>
+      </c>
+      <c r="T27">
+        <v>0.01446886747717466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.223082</v>
+      </c>
+      <c r="I28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.265099</v>
+      </c>
+      <c r="O28">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P28">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q28">
+        <v>0.03135786834644445</v>
+      </c>
+      <c r="R28">
+        <v>0.282220815118</v>
+      </c>
+      <c r="S28">
+        <v>0.002551373674487473</v>
+      </c>
+      <c r="T28">
+        <v>0.002551373674487474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="H21">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="I21">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="J21">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.22436935081516</v>
-      </c>
-      <c r="N21">
-        <v>1.22436935081516</v>
-      </c>
-      <c r="O21">
-        <v>0.2502644361644519</v>
-      </c>
-      <c r="P21">
-        <v>0.2502644361644519</v>
-      </c>
-      <c r="Q21">
-        <v>0.4805013689540886</v>
-      </c>
-      <c r="R21">
-        <v>0.4805013689540886</v>
-      </c>
-      <c r="S21">
-        <v>0.06294151800277675</v>
-      </c>
-      <c r="T21">
-        <v>0.06294151800277675</v>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.223082</v>
+      </c>
+      <c r="I29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P29">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q29">
+        <v>0.02299375577288889</v>
+      </c>
+      <c r="R29">
+        <v>0.206943801956</v>
+      </c>
+      <c r="S29">
+        <v>0.001870843467687272</v>
+      </c>
+      <c r="T29">
+        <v>0.001870843467687272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.223082</v>
+      </c>
+      <c r="I30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N30">
+        <v>2.542378</v>
+      </c>
+      <c r="O30">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P30">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q30">
+        <v>0.06301764099955556</v>
+      </c>
+      <c r="R30">
+        <v>0.567158768996</v>
+      </c>
+      <c r="S30">
+        <v>0.005127311222122627</v>
+      </c>
+      <c r="T30">
+        <v>0.005127311222122628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.223082</v>
+      </c>
+      <c r="I31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N31">
+        <v>5.083978</v>
+      </c>
+      <c r="O31">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P31">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q31">
+        <v>0.1260159977995556</v>
+      </c>
+      <c r="R31">
+        <v>1.134143980196</v>
+      </c>
+      <c r="S31">
+        <v>0.0102530534218061</v>
+      </c>
+      <c r="T31">
+        <v>0.0102530534218061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.273819</v>
+      </c>
+      <c r="I32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6399373333333334</v>
+      </c>
+      <c r="N32">
+        <v>1.919812</v>
+      </c>
+      <c r="O32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="P32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="Q32">
+        <v>0.2717214446697778</v>
+      </c>
+      <c r="R32">
+        <v>2.445493002028</v>
+      </c>
+      <c r="S32">
+        <v>0.02210810164341998</v>
+      </c>
+      <c r="T32">
+        <v>0.02210810164341998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.273819</v>
+      </c>
+      <c r="I33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N33">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P33">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q33">
+        <v>1.015430477267778</v>
+      </c>
+      <c r="R33">
+        <v>9.138874295410002</v>
+      </c>
+      <c r="S33">
+        <v>0.08261858106394576</v>
+      </c>
+      <c r="T33">
+        <v>0.08261858106394576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.273819</v>
+      </c>
+      <c r="I34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.265099</v>
+      </c>
+      <c r="O34">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P34">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q34">
+        <v>0.1790563492312222</v>
+      </c>
+      <c r="R34">
+        <v>1.611507143081</v>
+      </c>
+      <c r="S34">
+        <v>0.01456858134077137</v>
+      </c>
+      <c r="T34">
+        <v>0.01456858134077137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.273819</v>
+      </c>
+      <c r="I35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q35">
+        <v>0.1312964873224444</v>
+      </c>
+      <c r="R35">
+        <v>1.181668385902</v>
+      </c>
+      <c r="S35">
+        <v>0.01068269046882282</v>
+      </c>
+      <c r="T35">
+        <v>0.01068269046882282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.273819</v>
+      </c>
+      <c r="I36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N36">
+        <v>2.542378</v>
+      </c>
+      <c r="O36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q36">
+        <v>0.3598366001757778</v>
+      </c>
+      <c r="R36">
+        <v>3.238529401582</v>
+      </c>
+      <c r="S36">
+        <v>0.02927742468533106</v>
+      </c>
+      <c r="T36">
+        <v>0.02927742468533107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.273819</v>
+      </c>
+      <c r="I37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N37">
+        <v>5.083978</v>
+      </c>
+      <c r="O37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q37">
+        <v>0.7195630857757778</v>
+      </c>
+      <c r="R37">
+        <v>6.476067771982001</v>
+      </c>
+      <c r="S37">
+        <v>0.05854589010638072</v>
+      </c>
+      <c r="T37">
+        <v>0.05854589010638073</v>
       </c>
     </row>
   </sheetData>
